--- a/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView windowWidth="18350" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -212,6 +212,155 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/624541742721851/</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>南投埔里</t>
+  </si>
+  <si>
+    <t>台中市北屯區</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停放在樹蔭下，車頂接觸到樹枝，引擎蓋無鳥屎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落果</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/635946351581390/</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>芬園鄉員草路</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頂接觸到樹枝，數種為構樹</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/639354851240540/</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>南投國姓蕙蓀林場</t>
+  </si>
+  <si>
+    <t>臺中市南區</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頭接觸到旁邊雜草</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/645544233954935/</t>
+  </si>
+  <si>
+    <t>太平坪林森林公園</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>公園，停放在樹蔭下，周邊有接觸到草叢</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653396816503010/</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>南投鹿谷麒麟潭</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/653398983169460/</t>
+  </si>
+  <si>
+    <t>0:00</t>
+  </si>
+  <si>
+    <t>破壞毛家蟻</t>
+  </si>
+  <si>
+    <t>Trichomyrmex_destructor</t>
+  </si>
+  <si>
+    <t>Scooter</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>桃園火車站前機車保管場</t>
+  </si>
+  <si>
+    <t>桃園市龜山區長壽路</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>鐵皮屋室內停車場，水泥地</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/654078399768185/</t>
+  </si>
+  <si>
+    <t>長角黃山蟻</t>
+  </si>
+  <si>
+    <t>Paratrechina_longicornis</t>
+  </si>
+  <si>
+    <t>汀州路四段師大分布側門</t>
+  </si>
+  <si>
+    <t>路邊機車停車格，停放在樹蔭下，周邊沒有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/657758346066857/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -313,9 +462,6 @@
     <t>Parking_duration</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>A day</t>
   </si>
   <si>
@@ -334,9 +480,6 @@
     <t>A month</t>
   </si>
   <si>
-    <t>Scooter</t>
-  </si>
-  <si>
     <t>新竹科學園區停車場</t>
   </si>
   <si>
@@ -382,9 +525,6 @@
     <t>屏東恆春社頂公園</t>
   </si>
   <si>
-    <t>9:00</t>
-  </si>
-  <si>
     <t>黑棘山蟻</t>
   </si>
   <si>
@@ -418,12 +558,6 @@
     <t>每年3-4月都會上車</t>
   </si>
   <si>
-    <t>長角黃山蟻</t>
-  </si>
-  <si>
-    <t>Paratrechina_longicornis</t>
-  </si>
-  <si>
     <t>新竹清華大學生命科學院後停車場</t>
   </si>
   <si>
@@ -538,9 +672,6 @@
     <t>宜蘭大同古魯林道</t>
   </si>
   <si>
-    <t>Rainy</t>
-  </si>
-  <si>
     <t>下雨，黑色車子</t>
   </si>
   <si>
@@ -568,9 +699,6 @@
     <t>白車，有一半遮蔭的草地</t>
   </si>
   <si>
-    <t>0:00</t>
-  </si>
-  <si>
     <t>南投縣埔里福長路12巷</t>
   </si>
   <si>
@@ -583,9 +711,6 @@
     <t>回台中市沙鹿區福成路</t>
   </si>
   <si>
-    <t>15:00</t>
-  </si>
-  <si>
     <t>花蓮富里鄉</t>
   </si>
   <si>
@@ -596,9 +721,6 @@
   </si>
   <si>
     <t>白車，回科博館，有草，短短的，不高。</t>
-  </si>
-  <si>
-    <t>Blue</t>
   </si>
   <si>
     <t>台中市北屯區昌平路二段</t>
@@ -610,12 +732,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
@@ -651,35 +773,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -687,34 +780,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,8 +803,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -749,16 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +858,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -788,7 +903,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,7 +955,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,133 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +1009,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1057,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,45 +1122,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1061,18 +1144,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,6 +1188,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1100,158 +1211,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,7 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1330,64 +1452,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1658,13 +1792,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
@@ -1741,7 +1875,7 @@
       <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -1779,7 +1913,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="28" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6">
@@ -1788,7 +1922,7 @@
       <c r="L2" s="6">
         <v>22.686784</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="6">
@@ -1806,7 +1940,7 @@
       <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1865,7 +1999,7 @@
       <c r="R3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1924,7 +2058,7 @@
       <c r="R4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1956,7 +2090,7 @@
       <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="28" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6">
@@ -1965,7 +2099,7 @@
       <c r="L5" s="6">
         <v>24.052188</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="28" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="6">
@@ -1983,12 +2117,422 @@
       <c r="R5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="11:11">
-      <c r="K6" s="22"/>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20230702</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="21">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="22">
+        <v>120.97646</v>
+      </c>
+      <c r="L6" s="6">
+        <v>23.94475</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="6">
+        <v>120.682886435026</v>
+      </c>
+      <c r="O6" s="6">
+        <v>24.1842020704196</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20230704</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="21">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="6">
+        <v>120.952707</v>
+      </c>
+      <c r="L7" s="6">
+        <v>23.969026</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="6">
+        <v>120.610146611658</v>
+      </c>
+      <c r="O7" s="6">
+        <v>23.9709784614056</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20230723</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6">
+        <v>121.003519</v>
+      </c>
+      <c r="L8" s="6">
+        <v>24.08028</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="6">
+        <v>120.662462331881</v>
+      </c>
+      <c r="O8" s="6">
+        <v>24.1214546035866</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20230808</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="21">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="6">
+        <v>120.800281</v>
+      </c>
+      <c r="L9" s="6">
+        <v>23.828552</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>20230810</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="6">
+        <v>120.7744779</v>
+      </c>
+      <c r="L10" s="6">
+        <v>23.7493116</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20230807</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="21">
+        <v>72</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="6">
+        <v>121.3147845</v>
+      </c>
+      <c r="L11" s="6">
+        <v>24.9900554</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="6">
+        <v>121.336737259589</v>
+      </c>
+      <c r="O11" s="6">
+        <v>24.998169671502</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>20230331</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="21">
+        <v>72</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="6">
+        <v>121.536392</v>
+      </c>
+      <c r="L12" s="6">
+        <v>25.006433</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1996,6 +2540,13 @@
     <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
     <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
     <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
+    <hyperlink ref="S6" r:id="rId5" display="https://www.facebook.com/groups/577051257470900/permalink/635946351581390/"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.facebook.com/groups/577051257470900/permalink/639354851240540/"/>
+    <hyperlink ref="S8" r:id="rId7" display="https://www.facebook.com/groups/577051257470900/permalink/645544233954935/"/>
+    <hyperlink ref="S9" r:id="rId8" display="https://www.facebook.com/groups/577051257470900/permalink/653396816503010/"/>
+    <hyperlink ref="S10" r:id="rId9" display="https://www.facebook.com/groups/577051257470900/permalink/653398983169460/"/>
+    <hyperlink ref="S11" r:id="rId10" display="https://www.facebook.com/groups/577051257470900/permalink/654078399768185/"/>
+    <hyperlink ref="S12" r:id="rId11" display="https://www.facebook.com/groups/577051257470900/permalink/657758346066857/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2020,10 +2571,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2031,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2039,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2047,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2055,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2063,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2071,7 +2622,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2079,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2087,7 +2638,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2095,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -2104,7 +2655,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -2113,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G12" s="17"/>
     </row>
@@ -2122,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2130,7 +2681,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="G14" s="17"/>
     </row>
@@ -2139,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2147,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2155,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2163,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2171,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2179,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2192,42 +2743,42 @@
     </row>
     <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="18" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="18" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2338,10 +2889,10 @@
         <v>42960</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2356,10 +2907,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2368,7 +2919,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2377,19 +2928,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2400,10 +2951,10 @@
         <v>43733</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2415,13 +2966,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2430,28 +2981,28 @@
         <v>24.7781010661178</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2462,16 +3013,16 @@
         <v>43929</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -2480,10 +3031,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -2492,13 +3043,13 @@
         <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -2507,13 +3058,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -2524,16 +3075,16 @@
         <v>44079</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -2542,10 +3093,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -2554,28 +3105,28 @@
         <v>25.044103</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -2586,10 +3137,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -2604,10 +3155,10 @@
         <v>24</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -2616,28 +3167,28 @@
         <v>21.9657797250651</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -2648,28 +3199,28 @@
         <v>44178</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -2678,28 +3229,28 @@
         <v>22.64866667</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -2710,10 +3261,10 @@
         <v>44105</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -2728,10 +3279,10 @@
         <v>24</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -2740,28 +3291,28 @@
         <v>23.75684947021</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -2772,10 +3323,10 @@
         <v>43983</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -2787,13 +3338,13 @@
         <v>23</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -2802,28 +3353,28 @@
         <v>23.9496602216195</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2834,10 +3385,10 @@
         <v>44044</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -2852,10 +3403,10 @@
         <v>24</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -2864,7 +3415,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -2873,19 +3424,19 @@
         <v>22.6744337598374</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -2896,16 +3447,16 @@
         <v>44287</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -2914,10 +3465,10 @@
         <v>24</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -2926,28 +3477,28 @@
         <v>25.0180892884336</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -2958,16 +3509,16 @@
         <v>44319</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -2976,10 +3527,10 @@
         <v>24</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -2988,28 +3539,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3020,16 +3571,16 @@
         <v>44327</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>23</v>
@@ -3038,10 +3589,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3050,28 +3601,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3082,10 +3633,10 @@
         <v>44341</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3100,10 +3651,10 @@
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3112,28 +3663,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3144,10 +3695,10 @@
         <v>44355</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3162,10 +3713,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3174,28 +3725,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3206,16 +3757,16 @@
         <v>44363</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3224,10 +3775,10 @@
         <v>24</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3236,28 +3787,28 @@
         <v>22.8011983846292</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3268,10 +3819,10 @@
         <v>44376</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3286,10 +3837,10 @@
         <v>24</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3298,28 +3849,28 @@
         <v>24.7894203746766</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3330,28 +3881,28 @@
         <v>44381</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3360,28 +3911,28 @@
         <v>24.57430556</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3392,16 +3943,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3410,10 +3961,10 @@
         <v>24</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3422,28 +3973,28 @@
         <v>24.274</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -3454,28 +4005,28 @@
         <v>44403</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -3484,28 +4035,28 @@
         <v>24.9447845618742</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -3516,10 +4067,10 @@
         <v>44408</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -3534,10 +4085,10 @@
         <v>24</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -3546,28 +4097,28 @@
         <v>24.1144923218312</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3578,10 +4129,10 @@
         <v>44409</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -3596,10 +4147,10 @@
         <v>24</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -3608,28 +4159,28 @@
         <v>23.8649864324543</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3640,10 +4191,10 @@
         <v>44410</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>21</v>
@@ -3658,10 +4209,10 @@
         <v>24</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -3670,28 +4221,28 @@
         <v>24.1933684218396</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3702,28 +4253,28 @@
         <v>44412</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -3732,28 +4283,28 @@
         <v>25.1458353609832</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -3764,16 +4315,16 @@
         <v>44417</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -3782,10 +4333,10 @@
         <v>24</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -3794,28 +4345,28 @@
         <v>22.1334697411457</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -3826,10 +4377,10 @@
         <v>44426</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -3847,7 +4398,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -3856,28 +4407,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -3888,16 +4439,16 @@
         <v>44449</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -3906,10 +4457,10 @@
         <v>24</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -3918,28 +4469,28 @@
         <v>25.0369650741737</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -3950,16 +4501,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -3968,10 +4519,10 @@
         <v>24</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -3980,28 +4531,28 @@
         <v>23.6763958475496</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4012,10 +4563,10 @@
         <v>44481</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4033,7 +4584,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4042,28 +4593,28 @@
         <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4074,10 +4625,10 @@
         <v>44500</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4092,10 +4643,10 @@
         <v>24</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4104,28 +4655,28 @@
         <v>23.9645079741834</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4136,28 +4687,28 @@
         <v>44501</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4166,28 +4717,28 @@
         <v>23.4778160137451</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4198,10 +4749,10 @@
         <v>44650</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4216,10 +4767,10 @@
         <v>24</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4228,28 +4779,28 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4260,16 +4811,16 @@
         <v>44660</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4281,7 +4832,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4290,28 +4841,28 @@
         <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4322,28 +4873,28 @@
         <v>44668</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4352,28 +4903,28 @@
         <v>25.0347553435176</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4384,16 +4935,16 @@
         <v>44704</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4402,10 +4953,10 @@
         <v>24</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4414,28 +4965,28 @@
         <v>24.7204842189591</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4446,10 +4997,10 @@
         <v>44710</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -4467,7 +5018,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -4476,28 +5027,28 @@
         <v>23.831319911496</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4508,10 +5059,10 @@
         <v>44717</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -4529,7 +5080,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -4538,28 +5089,28 @@
         <v>24.091411</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4570,10 +5121,10 @@
         <v>44728</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4591,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -4600,28 +5151,28 @@
         <v>24.0111966910804</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4632,10 +5183,10 @@
         <v>44728</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -4650,10 +5201,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -4662,28 +5213,28 @@
         <v>23.9781408122414</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4694,10 +5245,10 @@
         <v>44777</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -4715,7 +5266,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -4724,28 +5275,28 @@
         <v>23.100578</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P40" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4756,10 +5307,10 @@
         <v>44787</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -4777,7 +5328,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -4786,28 +5337,28 @@
         <v>24.0866315</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4818,16 +5369,16 @@
         <v>44787</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -4836,10 +5387,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -4848,28 +5399,28 @@
         <v>24.1925474230372</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6900"/>
+    <workbookView windowWidth="18350" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -422,41 +422,6 @@
   </si>
   <si>
     <t>The url link to the facebook post</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
-    <t>Elevation of the vehicle location in meter
-Elevation data can be accessed via the elevatr pacakge
-https://cran.r-project.org/web/packages/elevatr/vignettes/introduction_to_elevatr.html#:~:text=Point%20elevation%20is%20accessed%20from,reported%20elevation%20for%20that%20location.</t>
-  </si>
-  <si>
-    <t>Land_use_type</t>
-  </si>
-  <si>
-    <t>USGS land use classification based on Anderson et. al, 1976. A Land Use And Land Cover Classification System For Use With Remote Sensor Data
-Taiwan land use type reference: Chen, Y. Y., Huang, W., Wang, W. H., Juang, J. Y., Hong, J. S., Kato, T., &amp; Luyssaert, S. (2019). Reconstructing Taiwan’s land cover changes between 1904 and 2015 from historical maps and satellite images. Scientific reports, 9(1), 3643.
-Data: https://zenodo.org/record/1256484#.ZAAxQXZBy44
-R code: https://rpubs.com/yiyingchen/Landuse4</t>
-  </si>
-  <si>
-    <t>Land_use_type_MODIS</t>
-  </si>
-  <si>
-    <t>Land use type of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/land_cover.html</t>
-  </si>
-  <si>
-    <t>NDVI_MODIS</t>
-  </si>
-  <si>
-    <t>NDVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
-  </si>
-  <si>
-    <t>EVI_MODIS</t>
-  </si>
-  <si>
-    <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
   </si>
   <si>
     <t>Parking_duration</t>
@@ -1794,8 +1759,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2559,8 +2524,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
@@ -2741,45 +2706,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
-      <c r="A22" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" ht="122.5" spans="1:2">
-      <c r="A23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" ht="35" spans="1:2">
-      <c r="A24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" ht="35" spans="1:2">
-      <c r="A25" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" ht="35" spans="1:2">
-      <c r="A26" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>119</v>
-      </c>
+    <row r="22" spans="1:2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2830,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -2892,7 +2837,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>21</v>
@@ -2910,7 +2855,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="K2" s="11">
         <v>121.005456279764</v>
@@ -2919,7 +2864,7 @@
         <v>23.9147099644175</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N2" s="15">
         <v>120.493599095617</v>
@@ -2934,13 +2879,13 @@
         <v>65</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2954,7 +2899,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2972,7 +2917,7 @@
         <v>65</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K3" s="11">
         <v>121.014607681748</v>
@@ -2996,13 +2941,13 @@
         <v>29</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3016,13 +2961,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>23</v>
@@ -3034,7 +2979,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K4" s="11">
         <v>120.561041585084</v>
@@ -3058,13 +3003,13 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -3078,13 +3023,13 @@
         <v>65</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -3093,10 +3038,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -3120,13 +3065,13 @@
         <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:20">
@@ -3137,10 +3082,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -3158,7 +3103,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -3188,7 +3133,7 @@
         <v>65</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:20">
@@ -3202,16 +3147,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -3220,7 +3165,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -3244,13 +3189,13 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -3264,7 +3209,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -3282,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -3312,7 +3257,7 @@
         <v>65</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -3326,7 +3271,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -3344,7 +3289,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -3374,7 +3319,7 @@
         <v>65</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3388,7 +3333,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>21</v>
@@ -3406,7 +3351,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -3415,7 +3360,7 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N10" s="15">
         <v>120.493599095617</v>
@@ -3430,13 +3375,13 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:20">
@@ -3450,13 +3395,13 @@
         <v>65</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>23</v>
@@ -3468,7 +3413,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -3492,13 +3437,13 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -3512,7 +3457,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>84</v>
@@ -3530,7 +3475,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -3560,7 +3505,7 @@
         <v>65</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3574,7 +3519,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>84</v>
@@ -3592,7 +3537,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3616,13 +3561,13 @@
         <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3636,7 +3581,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>21</v>
@@ -3654,7 +3599,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3678,13 +3623,13 @@
         <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3698,7 +3643,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
@@ -3716,7 +3661,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3746,7 +3691,7 @@
         <v>65</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:20">
@@ -3760,13 +3705,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>23</v>
@@ -3778,7 +3723,7 @@
         <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3802,13 +3747,13 @@
         <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:20">
@@ -3822,7 +3767,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3840,7 +3785,7 @@
         <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3864,13 +3809,13 @@
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:20">
@@ -3884,16 +3829,16 @@
         <v>65</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3902,7 +3847,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3926,13 +3871,13 @@
         <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3943,16 +3888,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3964,7 +3909,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3988,13 +3933,13 @@
         <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:20">
@@ -4008,16 +3953,16 @@
         <v>65</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -4026,7 +3971,7 @@
         <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -4050,13 +3995,13 @@
         <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:20">
@@ -4070,7 +4015,7 @@
         <v>65</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -4088,7 +4033,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -4112,13 +4057,13 @@
         <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4132,7 +4077,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
@@ -4150,7 +4095,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -4180,7 +4125,7 @@
         <v>65</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -4212,7 +4157,7 @@
         <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -4236,13 +4181,13 @@
         <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4256,7 +4201,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>84</v>
@@ -4274,7 +4219,7 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -4304,7 +4249,7 @@
         <v>65</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:20">
@@ -4318,13 +4263,13 @@
         <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -4336,7 +4281,7 @@
         <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -4366,7 +4311,7 @@
         <v>65</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:20">
@@ -4380,7 +4325,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
@@ -4398,7 +4343,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -4422,13 +4367,13 @@
         <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:20">
@@ -4442,13 +4387,13 @@
         <v>65</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -4460,7 +4405,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -4490,7 +4435,7 @@
         <v>65</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:20">
@@ -4501,16 +4446,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -4522,7 +4467,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4552,7 +4497,7 @@
         <v>65</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:20">
@@ -4566,7 +4511,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4584,7 +4529,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4608,13 +4553,13 @@
         <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:20">
@@ -4628,7 +4573,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4646,7 +4591,7 @@
         <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4670,13 +4615,13 @@
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:20">
@@ -4690,7 +4635,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>84</v>
@@ -4708,7 +4653,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4732,13 +4677,13 @@
         <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4752,7 +4697,7 @@
         <v>65</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4770,7 +4715,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4794,13 +4739,13 @@
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4814,13 +4759,13 @@
         <v>65</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4832,7 +4777,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4856,13 +4801,13 @@
         <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4876,13 +4821,13 @@
         <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -4894,7 +4839,7 @@
         <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4918,13 +4863,13 @@
         <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4938,13 +4883,13 @@
         <v>65</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>23</v>
@@ -4956,7 +4901,7 @@
         <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4980,13 +4925,13 @@
         <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -5000,7 +4945,7 @@
         <v>65</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>21</v>
@@ -5018,7 +4963,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -5042,13 +4987,13 @@
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -5062,7 +5007,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -5080,7 +5025,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -5104,13 +5049,13 @@
         <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -5124,7 +5069,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -5142,7 +5087,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -5166,13 +5111,13 @@
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -5186,7 +5131,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -5204,7 +5149,7 @@
         <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -5228,13 +5173,13 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -5248,7 +5193,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -5266,7 +5211,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -5290,13 +5235,13 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5310,7 +5255,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -5328,7 +5273,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -5352,13 +5297,13 @@
         <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5372,13 +5317,13 @@
         <v>65</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>23</v>
@@ -5390,7 +5335,7 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -5414,13 +5359,13 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_for_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6900" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data_from_FB_group" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -463,6 +463,9 @@
     <t>彰化市台灣化纖外圍</t>
   </si>
   <si>
+    <t>新北市林口</t>
+  </si>
+  <si>
     <t>天氣晴，構樹延伸貼上車子</t>
   </si>
   <si>
@@ -514,6 +517,9 @@
     <t>南投集集投 27 鄉道</t>
   </si>
   <si>
+    <t>台東</t>
+  </si>
+  <si>
     <t>行道樹種植青剛櫟，一旁為廢棄果園，有一顆比較大的血桐延伸到馬路邊，從南投跟回台東</t>
   </si>
   <si>
@@ -661,6 +667,9 @@
     <t>惠蓀林場</t>
   </si>
   <si>
+    <t>台中市南區</t>
+  </si>
+  <si>
     <t>白車，有一半遮蔭的草地</t>
   </si>
   <si>
@@ -673,6 +682,9 @@
     <t>南投縣埔里台一度假村旁711</t>
   </si>
   <si>
+    <t>台中市沙鹿</t>
+  </si>
+  <si>
     <t>回台中市沙鹿區福成路</t>
   </si>
   <si>
@@ -683,6 +695,9 @@
   </si>
   <si>
     <t>南投惠蓀關刀山林道</t>
+  </si>
+  <si>
+    <t>台中市北區</t>
   </si>
   <si>
     <t>白車，回科博館，有草，短短的，不高。</t>
@@ -706,7 +721,7 @@
     <numFmt numFmtId="178" formatCode="0.0000000000_);[Red]\(0.0000000000\)"/>
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -717,6 +732,18 @@
       <sz val="14"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri Light"/>
+      <charset val="136"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -1207,138 +1234,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,16 +1414,22 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1423,19 +1456,19 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1759,7 +1792,7 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
@@ -1767,8 +1800,8 @@
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="12.45625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.725" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.45625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.725" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.45625" style="23" customWidth="1"/>
     <col min="5" max="5" width="20.0875" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.90625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.63125" style="6" customWidth="1"/>
@@ -1782,71 +1815,71 @@
     <col min="15" max="15" width="13.3625" style="6" customWidth="1"/>
     <col min="16" max="16" width="12.45625" style="6" customWidth="1"/>
     <col min="17" max="17" width="13.0875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="77.81875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="77.81875" style="24" customWidth="1"/>
     <col min="19" max="19" width="67.63125" style="6" customWidth="1"/>
     <col min="20" max="20" width="21.725" style="6" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1857,10 +1890,10 @@
       <c r="B2" s="6">
         <v>20190517</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="23">
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1878,7 +1911,7 @@
       <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="30" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6">
@@ -1887,7 +1920,7 @@
       <c r="L2" s="6">
         <v>22.686784</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="6">
@@ -1902,10 +1935,10 @@
       <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1916,10 +1949,10 @@
       <c r="B3" s="6">
         <v>20230222</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="23">
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1961,10 +1994,10 @@
       <c r="Q3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1975,10 +2008,10 @@
       <c r="B4" s="6">
         <v>20230524</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="23">
         <v>31.5</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2005,13 +2038,13 @@
       <c r="L4" s="6">
         <v>24.06537</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="N4" s="6">
         <v>120.557600375419</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="24">
         <v>24.0656320952287</v>
       </c>
       <c r="P4" s="6" t="s">
@@ -2020,10 +2053,10 @@
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="32" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2034,10 +2067,10 @@
       <c r="B5" s="6">
         <v>20230527</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>4.5</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2055,7 +2088,7 @@
       <c r="I5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="30" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6">
@@ -2064,7 +2097,7 @@
       <c r="L5" s="6">
         <v>24.052188</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
       <c r="N5" s="6">
@@ -2079,10 +2112,10 @@
       <c r="Q5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2093,10 +2126,10 @@
       <c r="B6" s="6">
         <v>20230702</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="23">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2114,16 +2147,16 @@
       <c r="I6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <v>120.97646</v>
       </c>
       <c r="L6" s="6">
         <v>23.94475</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="6">
@@ -2138,10 +2171,10 @@
       <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="R6" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="33" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2152,10 +2185,10 @@
       <c r="B7" s="6">
         <v>20230704</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="23">
         <v>120</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2173,7 +2206,7 @@
       <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="30" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="6">
@@ -2182,7 +2215,7 @@
       <c r="L7" s="6">
         <v>23.969026</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="24" t="s">
         <v>56</v>
       </c>
       <c r="N7" s="6">
@@ -2200,7 +2233,7 @@
       <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2211,10 +2244,10 @@
       <c r="B8" s="6">
         <v>20230723</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="23">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -2232,7 +2265,7 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="30" t="s">
         <v>60</v>
       </c>
       <c r="K8" s="6">
@@ -2241,7 +2274,7 @@
       <c r="L8" s="6">
         <v>24.08028</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="30" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="6">
@@ -2256,10 +2289,10 @@
       <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="32" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2270,10 +2303,10 @@
       <c r="B9" s="6">
         <v>20230808</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="23">
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -2285,13 +2318,13 @@
       <c r="G9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="K9" s="6">
@@ -2300,25 +2333,25 @@
       <c r="L9" s="6">
         <v>23.828552</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="22" t="s">
+      <c r="M9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="34" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2329,10 +2362,10 @@
       <c r="B10" s="6">
         <v>20230810</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -2344,13 +2377,13 @@
       <c r="G10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="24" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="6">
@@ -2359,25 +2392,25 @@
       <c r="L10" s="6">
         <v>23.7493116</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="M10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="34" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2388,13 +2421,13 @@
       <c r="B11" s="6">
         <v>20230807</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <v>72</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2409,7 +2442,7 @@
       <c r="I11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>79</v>
       </c>
       <c r="K11" s="6">
@@ -2418,7 +2451,7 @@
       <c r="L11" s="6">
         <v>24.9900554</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="30" t="s">
         <v>80</v>
       </c>
       <c r="N11" s="6">
@@ -2433,10 +2466,10 @@
       <c r="Q11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="28" t="s">
+      <c r="R11" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="33" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2447,10 +2480,10 @@
       <c r="B12" s="6">
         <v>20230331</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="23">
         <v>72</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -2468,7 +2501,7 @@
       <c r="I12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="30" t="s">
         <v>86</v>
       </c>
       <c r="K12" s="6">
@@ -2492,10 +2525,10 @@
       <c r="Q12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="33" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2524,7 +2557,7 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2535,10 +2568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2613,7 +2646,7 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -2622,7 +2655,7 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
@@ -2631,7 +2664,7 @@
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
@@ -2648,7 +2681,7 @@
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
@@ -2707,24 +2740,24 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,8 +2770,8 @@
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N1" sqref="N$1:O$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K37" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2754,9 +2787,9 @@
     <col min="10" max="10" width="42" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.81875" customWidth="1"/>
     <col min="12" max="12" width="16.63125" customWidth="1"/>
-    <col min="13" max="13" width="11.0875" customWidth="1"/>
-    <col min="14" max="14" width="15.3625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.63125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="5" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="17" max="17" width="13.63125" customWidth="1"/>
     <col min="18" max="18" width="77.90625" customWidth="1"/>
@@ -2988,13 +3021,13 @@
         <v>24.0929920370014</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="N4" s="16">
+        <v>121.391039</v>
+      </c>
+      <c r="O4" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>45</v>
@@ -3003,7 +3036,7 @@
         <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>65</v>
@@ -3026,10 +3059,10 @@
         <v>116</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>23</v>
@@ -3038,10 +3071,10 @@
         <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" s="11">
         <v>121.618935</v>
@@ -3065,7 +3098,7 @@
         <v>65</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>65</v>
@@ -3082,10 +3115,10 @@
         <v>44080</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>21</v>
@@ -3103,7 +3136,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K6" s="11">
         <v>120.818153930452</v>
@@ -3147,16 +3180,16 @@
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
@@ -3165,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K7" s="11">
         <v>120.603</v>
@@ -3189,7 +3222,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>65</v>
@@ -3209,7 +3242,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -3227,7 +3260,7 @@
         <v>65</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8" s="11">
         <v>120.68601108018</v>
@@ -3271,7 +3304,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>21</v>
@@ -3289,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9" s="11">
         <v>120.927881600154</v>
@@ -3351,7 +3384,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K10" s="11">
         <v>120.797623493674</v>
@@ -3360,13 +3393,13 @@
         <v>23.8354244334485</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="15">
-        <v>120.493599095617</v>
+        <v>141</v>
+      </c>
+      <c r="N10" s="16">
+        <v>121.199268</v>
       </c>
       <c r="O10" s="15">
-        <v>22.6744337598374</v>
+        <v>23.108855</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>65</v>
@@ -3375,7 +3408,7 @@
         <v>29</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>65</v>
@@ -3413,7 +3446,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K11" s="11">
         <v>121.259460451407</v>
@@ -3437,7 +3470,7 @@
         <v>65</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>65</v>
@@ -3457,7 +3490,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>84</v>
@@ -3475,7 +3508,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K12" s="11">
         <v>120.989820923049</v>
@@ -3537,7 +3570,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="11">
         <v>120.989820923049</v>
@@ -3561,7 +3594,7 @@
         <v>65</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>65</v>
@@ -3599,7 +3632,7 @@
         <v>65</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="11">
         <v>120.800751607164</v>
@@ -3623,7 +3656,7 @@
         <v>65</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>65</v>
@@ -3661,7 +3694,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K15" s="11">
         <v>120.989820923049</v>
@@ -3723,7 +3756,7 @@
         <v>65</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K16" s="11">
         <v>121.094914364613</v>
@@ -3747,7 +3780,7 @@
         <v>65</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>65</v>
@@ -3767,7 +3800,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>21</v>
@@ -3785,7 +3818,7 @@
         <v>65</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K17" s="11">
         <v>120.989820923049</v>
@@ -3809,7 +3842,7 @@
         <v>29</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>65</v>
@@ -3832,13 +3865,13 @@
         <v>116</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>24</v>
@@ -3847,7 +3880,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K18" s="11">
         <v>120.75583333</v>
@@ -3871,7 +3904,7 @@
         <v>65</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>65</v>
@@ -3888,16 +3921,16 @@
         <v>44402</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>23</v>
@@ -3909,7 +3942,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K19" s="11">
         <v>120.789</v>
@@ -3933,7 +3966,7 @@
         <v>65</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>65</v>
@@ -3956,13 +3989,13 @@
         <v>116</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>24</v>
@@ -3971,7 +4004,7 @@
         <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K20" s="11">
         <v>121.213535993731</v>
@@ -3995,7 +4028,7 @@
         <v>65</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>65</v>
@@ -4033,7 +4066,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K21" s="11">
         <v>120.615507980198</v>
@@ -4057,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>65</v>
@@ -4095,7 +4128,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K22" s="11">
         <v>120.90848777833</v>
@@ -4157,7 +4190,7 @@
         <v>65</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K23" s="11">
         <v>120.681643451365</v>
@@ -4181,7 +4214,7 @@
         <v>65</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>65</v>
@@ -4219,7 +4252,7 @@
         <v>65</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="11">
         <v>121.470474592991</v>
@@ -4266,10 +4299,10 @@
         <v>111</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>23</v>
@@ -4281,7 +4314,7 @@
         <v>65</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="11">
         <v>120.784057293861</v>
@@ -4343,7 +4376,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K26" s="11">
         <v>120.800751607164</v>
@@ -4367,7 +4400,7 @@
         <v>65</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>65</v>
@@ -4390,10 +4423,10 @@
         <v>111</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>23</v>
@@ -4405,7 +4438,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K27" s="11">
         <v>121.616350933956</v>
@@ -4446,16 +4479,16 @@
         <v>44452</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
@@ -4467,7 +4500,7 @@
         <v>65</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K28" s="11">
         <v>120.524591618023</v>
@@ -4511,7 +4544,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>21</v>
@@ -4529,7 +4562,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K29" s="11">
         <v>121.384302995593</v>
@@ -4538,13 +4571,13 @@
         <v>25.08061169164</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="N29" s="16">
+        <v>121.391039</v>
+      </c>
+      <c r="O29" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>65</v>
@@ -4553,7 +4586,7 @@
         <v>65</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>65</v>
@@ -4573,7 +4606,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>21</v>
@@ -4591,7 +4624,7 @@
         <v>65</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K30" s="11">
         <v>120.945287778335</v>
@@ -4615,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>65</v>
@@ -4653,7 +4686,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K31" s="11">
         <v>120.47220016482</v>
@@ -4677,7 +4710,7 @@
         <v>65</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>65</v>
@@ -4715,7 +4748,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K32" s="11">
         <v>120.800751607164</v>
@@ -4724,13 +4757,13 @@
         <v>23.8291875493213</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>65</v>
+        <v>141</v>
+      </c>
+      <c r="N32" s="16">
+        <v>121.199268</v>
+      </c>
+      <c r="O32" s="15">
+        <v>23.108855</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>65</v>
@@ -4739,7 +4772,7 @@
         <v>29</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>65</v>
@@ -4762,10 +4795,10 @@
         <v>111</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -4777,7 +4810,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K33" s="11">
         <v>121.675840396747</v>
@@ -4786,13 +4819,13 @@
         <v>24.5908046853466</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="N33" s="16">
+        <v>121.391039</v>
+      </c>
+      <c r="O33" s="15">
+        <v>25.083033</v>
       </c>
       <c r="P33" s="11" t="s">
         <v>66</v>
@@ -4801,7 +4834,7 @@
         <v>65</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>65</v>
@@ -4824,10 +4857,10 @@
         <v>119</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>23</v>
@@ -4839,7 +4872,7 @@
         <v>65</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K34" s="11">
         <v>121.385186825782</v>
@@ -4863,7 +4896,7 @@
         <v>65</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>65</v>
@@ -4901,7 +4934,7 @@
         <v>65</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K35" s="11">
         <v>120.924748380229</v>
@@ -4925,7 +4958,7 @@
         <v>65</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>65</v>
@@ -4963,7 +4996,7 @@
         <v>25</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K36" s="11">
         <v>120.79282235184</v>
@@ -4987,7 +5020,7 @@
         <v>29</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>65</v>
@@ -4996,7 +5029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" ht="18.5" spans="1:20">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -5007,7 +5040,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>21</v>
@@ -5025,7 +5058,7 @@
         <v>25</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K37" s="11">
         <v>121.03333872</v>
@@ -5033,14 +5066,14 @@
       <c r="L37" s="11">
         <v>24.091411</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>65</v>
+      <c r="M37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="15">
+        <v>120.67558</v>
+      </c>
+      <c r="O37" s="15">
+        <v>24.121393</v>
       </c>
       <c r="P37" s="11" t="s">
         <v>65</v>
@@ -5049,7 +5082,7 @@
         <v>65</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>65</v>
@@ -5087,7 +5120,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K38" s="11">
         <v>120.973170451356</v>
@@ -5111,7 +5144,7 @@
         <v>29</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>65</v>
@@ -5120,7 +5153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" ht="18.5" spans="1:20">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -5149,7 +5182,7 @@
         <v>65</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K39" s="11">
         <v>121.006319901755</v>
@@ -5157,14 +5190,14 @@
       <c r="L39" s="11">
         <v>23.9781408122414</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>65</v>
+      <c r="M39" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="N39" s="16">
+        <v>120.56428</v>
+      </c>
+      <c r="O39" s="15">
+        <v>24.223341</v>
       </c>
       <c r="P39" s="11" t="s">
         <v>65</v>
@@ -5173,7 +5206,7 @@
         <v>65</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>65</v>
@@ -5193,7 +5226,7 @@
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>21</v>
@@ -5211,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K40" s="11">
         <v>121.269271</v>
@@ -5235,7 +5268,7 @@
         <v>29</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>65</v>
@@ -5244,7 +5277,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" ht="18.5" spans="1:20">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -5255,7 +5288,7 @@
         <v>65</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>21</v>
@@ -5273,7 +5306,7 @@
         <v>25</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K41" s="11">
         <v>121.0265923</v>
@@ -5281,14 +5314,14 @@
       <c r="L41" s="11">
         <v>24.0866315</v>
       </c>
-      <c r="M41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>65</v>
+      <c r="M41" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N41" s="15">
+        <v>120.666963</v>
+      </c>
+      <c r="O41" s="15">
+        <v>24.157351</v>
       </c>
       <c r="P41" s="11" t="s">
         <v>65</v>
@@ -5297,7 +5330,7 @@
         <v>65</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>65</v>
@@ -5335,7 +5368,7 @@
         <v>70</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K42" s="11">
         <v>120.682093236019</v>
@@ -5359,7 +5392,7 @@
         <v>65</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>65</v>
